--- a/medicine/Enfance/Élisabeth_Brami/Élisabeth_Brami.xlsx
+++ b/medicine/Enfance/Élisabeth_Brami/Élisabeth_Brami.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Brami</t>
+          <t>Élisabeth_Brami</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Élisabeth Brami, née Élisabeth Proweller, née le 25 août 1946[1] à Varsovie[2] (Pologne), est une psychologue clinicienne[1] et autrice de littérature jeunesse française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élisabeth Brami, née Élisabeth Proweller, née le 25 août 1946 à Varsovie (Pologne), est une psychologue clinicienne et autrice de littérature jeunesse française.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Brami</t>
+          <t>Élisabeth_Brami</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Élisabeth Brami naît en Pologne juste après la seconde guerre mondiale, d'une famille rescapée de la Shoah[3],[4], et arrive en France à 18 mois[5],[3]. Elle est la fille unique de l'architecte et peintre Emanuel Proweller[6],[4].
-Elle suit des études supérieures de lettres et de sciences humaines[2],[3], puis est diplômée d'un DESS de psychopathologies[3]. Elle devient ensuite psychologue en 1974, dans un hôpital de jour pour adolescents[2], jusqu'en 2006[5].
-Elle commence à écrire pour la jeunesse en 1990[2], et est adhérente à la charte des auteurs et illustrateurs de jeunesse[5], et à la Maison des écrivains et de la littérature, dont elle a été vice-présidente[3].
-Elle publie de nombreux albums jeunesse dont elle est autrice, illustrés par de nombreux illustrateurs notoires, tels que Zaü, Christophe Blain, Philippe Bertrand, Bruno Heitz ou Emmanuelle Houdart. Elle est également autrice de romans jeunesse, et depuis 2006, elle écrit quelques romans de littérature générale, dont Les Heures secrètes[7], en 2011.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élisabeth Brami naît en Pologne juste après la seconde guerre mondiale, d'une famille rescapée de la Shoah et arrive en France à 18 mois,. Elle est la fille unique de l'architecte et peintre Emanuel Proweller,.
+Elle suit des études supérieures de lettres et de sciences humaines puis est diplômée d'un DESS de psychopathologies. Elle devient ensuite psychologue en 1974, dans un hôpital de jour pour adolescents, jusqu'en 2006.
+Elle commence à écrire pour la jeunesse en 1990, et est adhérente à la charte des auteurs et illustrateurs de jeunesse, et à la Maison des écrivains et de la littérature, dont elle a été vice-présidente.
+Elle publie de nombreux albums jeunesse dont elle est autrice, illustrés par de nombreux illustrateurs notoires, tels que Zaü, Christophe Blain, Philippe Bertrand, Bruno Heitz ou Emmanuelle Houdart. Elle est également autrice de romans jeunesse, et depuis 2006, elle écrit quelques romans de littérature générale, dont Les Heures secrètes, en 2011.
 En 2014, avec Patrick Delaroche, elle publie un essai sur Françoise Dolto chez Albin Michel : Dolto, l'art d'être parents.
-Elle est l'autrice de plus d'une centaine d'ouvrages[8]. Son premier éditeur est Bordas, et son principal éditeur est Seuil jeunesse. Plusieurs de ses titres sont également publiés aux éditions Thierry Magnier, Hachette Jeunesse, Casterman, ou la récente maison d'édition engagée Talents Hauts.
-Elle est mère de trois enfants[3] ; sa fille, Maïa Brami[9], née en 1976, est également autrice jeunesse[10].
-En 2018, elle publie un documentaire jeunesse autour de son père Emanuel Proweller, artiste peintre, et de ses œuvres, dans La couleur des saisons. S'associant avec l'illustratrice Aurélie Guillerey, elle livre en 2020 Les Vieux Enfants[11]. L'ouvrage est finaliste du Prix Landerneau 2021[12] dans la Catégorie Album Jeunesse.
+Elle est l'autrice de plus d'une centaine d'ouvrages. Son premier éditeur est Bordas, et son principal éditeur est Seuil jeunesse. Plusieurs de ses titres sont également publiés aux éditions Thierry Magnier, Hachette Jeunesse, Casterman, ou la récente maison d'édition engagée Talents Hauts.
+Elle est mère de trois enfants ; sa fille, Maïa Brami, née en 1976, est également autrice jeunesse.
+En 2018, elle publie un documentaire jeunesse autour de son père Emanuel Proweller, artiste peintre, et de ses œuvres, dans La couleur des saisons. S'associant avec l'illustratrice Aurélie Guillerey, elle livre en 2020 Les Vieux Enfants. L'ouvrage est finaliste du Prix Landerneau 2021 dans la Catégorie Album Jeunesse.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Brami</t>
+          <t>Élisabeth_Brami</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,11 +563,48 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Élisabeth Brami est l'autrice de plus d'une centaine d'ouvrages : la liste de ses principales publications, jusqu'en 2014, est disponible sur sa fiche du site de la Maison des écrivains et de la littérature[3], et la quasi-totalité de ses ouvrages sur le site de Ricochet[8].
-Quelques ouvrages
-Les petits riens, ill. Philippe Bertrand, Seuil Jeunesse, 1995 - album jeunesse
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élisabeth Brami est l'autrice de plus d'une centaine d'ouvrages : la liste de ses principales publications, jusqu'en 2014, est disponible sur sa fiche du site de la Maison des écrivains et de la littérature, et la quasi-totalité de ses ouvrages sur le site de Ricochet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Élisabeth_Brami</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lisabeth_Brami</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Quelques ouvrages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les petits riens, ill. Philippe Bertrand, Seuil Jeunesse, 1995 - album jeunesse
 Les deux arbres, ill. de Christophe Blain, Casterman, 1997 - album jeunesse
 Moi j'adore, maman déteste, ill. de Lionel Le Néouanic, Seuil jeunesse, 1997 - album jeunesse
 Moi je déteste, maman adore !, ill. de Lionel Le Néouanic, Seuil jeunesse, 1999 - album jeunesse
@@ -579,38 +630,40 @@
 Crever l'écran, Éditions du Mercredi, 2018 - roman adolescents
  Les grandes personnes, avec Zelda Zonk, Talents hauts, 2018 - album jeunesse
 La couleur des saisons, illustrations Emanuel Proweller, Éditions courtes et longues, 2018 - documentaire jeunesse autour de son père artiste Emanuel Proweller
-Mon école de aïe à zut[13], avec Popy Matigot, Saltimbanque éditions, 2019
+Mon école de aïe à zut, avec Popy Matigot, Saltimbanque éditions, 2019
 Les Vieux Enfants, illustré par Aurélie Guillerey, Casterman, 2020</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89lisabeth_Brami</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Élisabeth_Brami</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89lisabeth_Brami</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2021 : Finaliste Prix Landerneau[12], Catégorie Album Jeunesse, pour Les Vieux Enfants, illustré par Aurélie Guillerey</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2021 : Finaliste Prix Landerneau, Catégorie Album Jeunesse, pour Les Vieux Enfants, illustré par Aurélie Guillerey</t>
         </is>
       </c>
     </row>
